--- a/testing/Labeling/Data/ReviewSensFiles.xlsx
+++ b/testing/Labeling/Data/ReviewSensFiles.xlsx
@@ -15889,7 +15889,7 @@
         <v>9</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E222" s="1"/>
     </row>
@@ -16081,7 +16081,7 @@
         <v>11</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E238" s="1"/>
     </row>
@@ -17782,7 +17782,7 @@
         <v>11</v>
       </c>
       <c r="D374" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E374" s="1"/>
     </row>
@@ -17902,7 +17902,7 @@
         <v>11</v>
       </c>
       <c r="D384" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E384" s="1"/>
     </row>
@@ -19588,7 +19588,7 @@
         <v>11</v>
       </c>
       <c r="D517" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E517" s="1"/>
     </row>
@@ -21765,7 +21765,7 @@
         <v>9</v>
       </c>
       <c r="D686" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E686" s="1"/>
     </row>
@@ -21885,7 +21885,7 @@
         <v>9</v>
       </c>
       <c r="D696" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E696" s="1"/>
     </row>
@@ -21993,7 +21993,7 @@
         <v>9</v>
       </c>
       <c r="D705" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E705" s="1"/>
     </row>
@@ -22293,7 +22293,7 @@
         <v>11</v>
       </c>
       <c r="D730" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E730" s="1"/>
     </row>
@@ -22461,7 +22461,7 @@
         <v>9</v>
       </c>
       <c r="D744" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E744" s="1"/>
     </row>
@@ -25224,7 +25224,7 @@
         <v>11</v>
       </c>
       <c r="D954" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E954" s="1"/>
     </row>
@@ -28417,7 +28417,7 @@
         <v>11</v>
       </c>
       <c r="D1200" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E1200" s="1"/>
     </row>
@@ -35785,7 +35785,7 @@
         <v>11</v>
       </c>
       <c r="D1776" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E1776" s="1"/>
     </row>
@@ -40864,7 +40864,7 @@
         <v>9</v>
       </c>
       <c r="D2157" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2157" s="1"/>
     </row>
@@ -40936,7 +40936,7 @@
         <v>11</v>
       </c>
       <c r="D2163" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2163" s="1"/>
     </row>
@@ -40984,7 +40984,7 @@
         <v>9</v>
       </c>
       <c r="D2167" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2167" s="1"/>
     </row>
@@ -41164,7 +41164,7 @@
         <v>11</v>
       </c>
       <c r="D2182" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2182" s="1"/>
     </row>
@@ -41260,7 +41260,7 @@
         <v>9</v>
       </c>
       <c r="D2190" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2190" s="1"/>
     </row>
@@ -41404,7 +41404,7 @@
         <v>9</v>
       </c>
       <c r="D2202" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2202" s="1"/>
     </row>
@@ -41416,7 +41416,7 @@
         <v>11</v>
       </c>
       <c r="D2203" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2203" s="1"/>
     </row>
@@ -41692,7 +41692,7 @@
         <v>11</v>
       </c>
       <c r="D2226" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2226" s="1"/>
     </row>
@@ -51736,7 +51736,7 @@
         <v>9</v>
       </c>
       <c r="D3009" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3009" s="1"/>
     </row>
@@ -52180,7 +52180,7 @@
         <v>11</v>
       </c>
       <c r="D3046" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3046" s="1"/>
     </row>
@@ -52372,7 +52372,7 @@
         <v>9</v>
       </c>
       <c r="D3062" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3062" s="1"/>
     </row>
@@ -52432,7 +52432,7 @@
         <v>9</v>
       </c>
       <c r="D3067" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3067" s="1"/>
     </row>
@@ -52444,7 +52444,7 @@
         <v>9</v>
       </c>
       <c r="D3068" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3068" s="1"/>
     </row>
@@ -60468,7 +60468,7 @@
         <v>9</v>
       </c>
       <c r="D3687" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3687" s="1"/>
     </row>
@@ -74525,7 +74525,7 @@
         <v>11</v>
       </c>
       <c r="D4801" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E4801" s="1"/>
     </row>
@@ -74585,7 +74585,7 @@
         <v>11</v>
       </c>
       <c r="D4806" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E4806" s="1"/>
     </row>
